--- a/csv/rf/rf_pc200fda_init.xlsx
+++ b/csv/rf/rf_pc200fda_init.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Best Perf." r:id="rId3" sheetId="1"/>
-    <sheet name="Best Par." r:id="rId4" sheetId="2"/>
-    <sheet name="Perf." r:id="rId5" sheetId="3"/>
+    <sheet name="Sel. Par." r:id="rId4" sheetId="2"/>
+    <sheet name="Best Par." r:id="rId5" sheetId="3"/>
+    <sheet name="Perf." r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -28,6 +29,9 @@
     <t>mtry</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>error</t>
   </si>
   <si>
@@ -44,9 +48,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>7</t>
@@ -165,7 +166,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0047619047619047675</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -192,13 +193,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>10.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -222,11 +223,44 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -240,15 +274,15 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0047619047619047675</v>
+        <v>0.018398268398268393</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01505846504842087</v>
+        <v>0.023760279653788033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>50.0</v>
@@ -257,15 +291,15 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0047619047619047675</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01505846504842087</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>100.0</v>
@@ -282,7 +316,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>250.0</v>
@@ -299,7 +333,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>500.0</v>
@@ -308,15 +342,15 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0047619047619047675</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01505846504842087</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>10.0</v>
@@ -325,10 +359,10 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0047619047619047675</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01505846504842087</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -342,10 +376,10 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0047619047619047675</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01505846504842087</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="9">
@@ -359,10 +393,10 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E9" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="10">
@@ -376,10 +410,10 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0047619047619047675</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01505846504842087</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="11">
@@ -410,10 +444,10 @@
         <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.0047619047619047675</v>
       </c>
       <c r="E12" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.01505846504842087</v>
       </c>
     </row>
     <row r="13">
@@ -427,10 +461,10 @@
         <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0047619047619047675</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01505846504842087</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="14">
@@ -444,10 +478,10 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0047619047619047675</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01505846504842087</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="15">
@@ -461,10 +495,10 @@
         <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E15" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="16">
@@ -478,10 +512,10 @@
         <v>3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E16" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="17">
@@ -495,10 +529,10 @@
         <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E17" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="18">
@@ -512,10 +546,10 @@
         <v>4.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E18" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="19">
@@ -529,10 +563,10 @@
         <v>4.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E19" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="20">
@@ -546,10 +580,10 @@
         <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E20" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="21">
@@ -563,10 +597,10 @@
         <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E21" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="22">
@@ -580,10 +614,10 @@
         <v>5.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0047619047619047675</v>
+        <v>0.018398268398268403</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01505846504842087</v>
+        <v>0.03199512012791014</v>
       </c>
     </row>
     <row r="23">
@@ -597,10 +631,10 @@
         <v>5.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.014069264069264075</v>
+        <v>0.004545454545454542</v>
       </c>
       <c r="E23" t="n">
-        <v>0.022661325792986173</v>
+        <v>0.014373989364401712</v>
       </c>
     </row>
     <row r="24">
@@ -614,10 +648,10 @@
         <v>5.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E24" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="25">
@@ -631,10 +665,10 @@
         <v>5.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E25" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
     <row r="26">
@@ -648,10 +682,10 @@
         <v>5.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.009523809523809535</v>
+        <v>0.00930735930735931</v>
       </c>
       <c r="E26" t="n">
-        <v>0.020077953397894494</v>
+        <v>0.019628267670948406</v>
       </c>
     </row>
   </sheetData>
